--- a/Excel Project/Lab2_workbook.xlsx
+++ b/Excel Project/Lab2_workbook.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11200" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hours" sheetId="1" r:id="rId1"/>
-    <sheet name="Clients" sheetId="7" r:id="rId2"/>
+    <sheet name="Projects" sheetId="8" r:id="rId2"/>
+    <sheet name="Client" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -100,6 +101,15 @@
   </si>
   <si>
     <t>Beta Client</t>
+  </si>
+  <si>
+    <t>Project ID</t>
+  </si>
+  <si>
+    <t>Client ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Alpha </t>
   </si>
 </sst>
 </file>
@@ -123,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,12 +149,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -183,11 +187,10 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +472,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -800,10 +803,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>VLOOKUP(C2,Client!$A$2:$B$3,2)</f>
+        <v>Alpha Client</v>
+      </c>
+      <c r="E2" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>VLOOKUP(C3,Client!$A$2:$B$3,2)</f>
+        <v>Beta Client</v>
+      </c>
+      <c r="E3" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>VLOOKUP(C4,Client!$A$2:$B$3,2)</f>
+        <v>Beta Client</v>
+      </c>
+      <c r="E4" s="9">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -813,10 +906,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -824,7 +917,7 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -832,7 +925,7 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
     </row>
